--- a/MWS/Application/VariousDocumentOut/Doc/Excel/5-オンライン請求届出.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/5-オンライン請求届出.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E3D3B6-9A35-4368-B52B-D3943F4F256F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B73337-74AA-4E1E-AE37-FC124B2B8D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="オンライン請求届出" sheetId="24" r:id="rId1"/>
     <sheet name="オンライン証明書発行依頼書" sheetId="4" r:id="rId2"/>
-    <sheet name="休止届" sheetId="17" state="hidden" r:id="rId3"/>
-    <sheet name="解約通知書" sheetId="18" state="hidden" r:id="rId4"/>
+    <sheet name="電子証明書発行等依頼書" sheetId="28" r:id="rId3"/>
+    <sheet name="休止届" sheetId="17" state="hidden" r:id="rId4"/>
+    <sheet name="解約通知書" sheetId="18" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">オンライン証明書発行依頼書!$A$1:$N$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">オンライン請求届出!$A$1:$N$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">解約通知書!$A$1:$AA$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">休止届!$A$1:$AA$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">解約通知書!$A$1:$AA$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">休止届!$A$1:$AA$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>TEL</t>
     <phoneticPr fontId="1"/>
@@ -452,6 +453,179 @@
 福島県郡山市松木町2-88_x000D_
 ｲｵﾝﾀｳﾝ郡山内</t>
   </si>
+  <si>
+    <t>電子証明書発行等依頼書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【保険医療機関　保険薬局　特定健康診査・特定保健指導機関】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>令和</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子証明書の発行（失効）を依頼します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行等依頼種別</t>
+  </si>
+  <si>
+    <t>新規発行　・　失　効</t>
+  </si>
+  <si>
+    <t>依頼枚数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枚</t>
+  </si>
+  <si>
+    <t>機関種別</t>
+  </si>
+  <si>
+    <t>þ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保険医療機関　□　保険薬局</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療機関
+(薬局)
+コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+  </si>
+  <si>
+    <t>点数表</t>
+  </si>
+  <si>
+    <t>機関コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□　特定健診・特定保健指導機関</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機関名称</t>
+  </si>
+  <si>
+    <t>（フリガナ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所在地</t>
+  </si>
+  <si>
+    <t>〒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当部署/担当者名</t>
+  </si>
+  <si>
+    <t>電子証明書
+の使用用途</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レセプトのオンライン請求で使用します。　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□　特定健診・特定保健指導費用のオンライン請求で使用します。</t>
+  </si>
+  <si>
+    <t>□　レセプト及び特定健診・特定保健指導費用のオンライン請求で使用します。</t>
+  </si>
+  <si>
+    <t>発行料
+（更新料）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□　診療（調剤）報酬支払額から控除することを希望します。</t>
+  </si>
+  <si>
+    <t>□　払込請求書による振込みを希望します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　機関種別が特定健診・特定保健指導機関の場合には、</t>
+  </si>
+  <si>
+    <t>「払込請求書による振込み」を選択してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注：電子証明書は社会保険診療報酬支払基金、国民健康保険団体連合会共通です。</t>
+  </si>
+  <si>
+    <t>基金
+使用欄</t>
+    <rPh sb="0" eb="2">
+      <t>キキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受付</t>
+    <rPh sb="0" eb="2">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社会保険診療報酬支払基金</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -460,7 +634,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +808,116 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -649,7 +933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -826,6 +1110,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,26 +1229,526 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,246 +1759,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,7 +1817,7 @@
                   <a14:compatExt spid="_x0000_s50177"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001C40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001C40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1225,7 +1874,7 @@
         <xdr:cNvPr id="3" name="院長名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1937,7 @@
         <xdr:cNvPr id="4" name="円/楕円 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +2003,7 @@
         <xdr:cNvPr id="5" name="医療機関コード１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +2066,7 @@
         <xdr:cNvPr id="6" name="医療機関コード２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +2129,7 @@
         <xdr:cNvPr id="7" name="医療機関コード３">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +2192,7 @@
         <xdr:cNvPr id="8" name="医療機関コード４">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +2255,7 @@
         <xdr:cNvPr id="9" name="医療機関コード５">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +2318,7 @@
         <xdr:cNvPr id="10" name="医療機関コード６">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +2381,7 @@
         <xdr:cNvPr id="11" name="医療機関コード７">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +2444,7 @@
         <xdr:cNvPr id="12" name="住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +2507,7 @@
         <xdr:cNvPr id="13" name="住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +2570,7 @@
         <xdr:cNvPr id="14" name="顧客名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +2631,7 @@
         <xdr:cNvPr id="15" name="電話番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2695,7 @@
         <xdr:cNvPr id="16" name="住所">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2756,7 @@
         <xdr:cNvPr id="17" name="郵便番号１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2819,7 @@
         <xdr:cNvPr id="18" name="郵便番号２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2882,7 @@
         <xdr:cNvPr id="19" name="郵便番号５">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2945,7 @@
         <xdr:cNvPr id="20" name="郵便番号６">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +3008,7 @@
         <xdr:cNvPr id="21" name="郵便番号３">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +3071,7 @@
         <xdr:cNvPr id="22" name="郵便番号４">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +3134,7 @@
         <xdr:cNvPr id="23" name="郵便番号７">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +3197,7 @@
         <xdr:cNvPr id="24" name="システム名称">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +3260,7 @@
         <xdr:cNvPr id="25" name="メーカー名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +3323,7 @@
         <xdr:cNvPr id="26" name="宛先１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +3387,7 @@
         <xdr:cNvPr id="27" name="円/楕円 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +3453,7 @@
         <xdr:cNvPr id="28" name="宛先２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +3527,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2935,7 +3584,7 @@
         <xdr:cNvPr id="2" name="院長名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,7 +3647,7 @@
         <xdr:cNvPr id="4" name="円/楕円 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +3713,7 @@
         <xdr:cNvPr id="5" name="宛先１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +3777,7 @@
         <xdr:cNvPr id="6" name="宛先２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3192,7 +3841,7 @@
         <xdr:cNvPr id="24" name="医療機関コード１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3904,7 @@
         <xdr:cNvPr id="25" name="医療機関コード２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3318,7 +3967,7 @@
         <xdr:cNvPr id="26" name="医療機関コード３">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +4030,7 @@
         <xdr:cNvPr id="27" name="医療機関コード４">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +4093,7 @@
         <xdr:cNvPr id="28" name="医療機関コード５">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +4156,7 @@
         <xdr:cNvPr id="29" name="医療機関コード６">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3570,7 +4219,7 @@
         <xdr:cNvPr id="30" name="医療機関コード７">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +4282,7 @@
         <xdr:cNvPr id="31" name="県番号１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3696,7 +4345,7 @@
         <xdr:cNvPr id="32" name="県番号２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3759,7 +4408,7 @@
         <xdr:cNvPr id="33" name="郵便番号１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3820,7 +4469,7 @@
         <xdr:cNvPr id="34" name="郵便番号２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3881,7 +4530,7 @@
         <xdr:cNvPr id="35" name="郵便番号３">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3942,7 +4591,7 @@
         <xdr:cNvPr id="36" name="郵便番号４">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4003,7 +4652,7 @@
         <xdr:cNvPr id="37" name="郵便番号５">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4064,7 +4713,7 @@
         <xdr:cNvPr id="38" name="郵便番号６">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4125,7 +4774,7 @@
         <xdr:cNvPr id="39" name="郵便番号７">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4186,7 +4835,7 @@
         <xdr:cNvPr id="40" name="顧客名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4249,7 +4898,7 @@
         <xdr:cNvPr id="41" name="ﾌﾘｶﾞﾅ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4959,7 @@
         <xdr:cNvPr id="42" name="住所">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4373,7 +5022,7 @@
         <xdr:cNvPr id="43" name="電話番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4436,7 +5085,7 @@
         <xdr:cNvPr id="44" name="テキスト ボックス 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4497,7 +5146,7 @@
         <xdr:cNvPr id="45" name="住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4560,7 +5209,7 @@
         <xdr:cNvPr id="46" name="住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4623,7 +5272,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4667,7 +5316,7 @@
         <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4700,6 +5349,66 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15830551" y="1466850"/>
+          <a:ext cx="5524500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -4716,7 +5425,7 @@
         <xdr:cNvPr id="2" name="郵便番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4783,7 +5492,7 @@
         <xdr:cNvPr id="3" name="住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4846,7 +5555,7 @@
         <xdr:cNvPr id="4" name="住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4917,7 +5626,7 @@
         <xdr:cNvPr id="5" name="FAX番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4988,7 +5697,7 @@
         <xdr:cNvPr id="6" name="送付先">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5054,7 +5763,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5104,7 +5813,7 @@
         <xdr:cNvPr id="8" name="顧客No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5172,7 +5881,7 @@
         <xdr:cNvPr id="9" name="得意先No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5225,7 +5934,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5245,7 +5954,7 @@
         <xdr:cNvPr id="9" name="郵便番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5312,7 +6021,7 @@
         <xdr:cNvPr id="10" name="住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5375,7 +6084,7 @@
         <xdr:cNvPr id="11" name="住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5446,7 +6155,7 @@
         <xdr:cNvPr id="13" name="送付先">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5512,7 +6221,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5562,7 +6271,7 @@
         <xdr:cNvPr id="7" name="顧客住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5634,7 +6343,7 @@
         <xdr:cNvPr id="8" name="顧客名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5701,7 +6410,7 @@
         <xdr:cNvPr id="12" name="顧客住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5768,7 +6477,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5877,7 +6586,7 @@
         <xdr:cNvPr id="16" name="顧客No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5945,7 +6654,7 @@
         <xdr:cNvPr id="17" name="得意先No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6013,7 +6722,7 @@
         <xdr:cNvPr id="19" name="FAX番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6395,7 +7104,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A40:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -6494,6 +7203,1914 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458018A9-22F8-4EDB-98F7-EE6668A33313}">
+  <dimension ref="B1:CF53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CC9" sqref="CC9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="77" width="1.5" style="3" customWidth="1"/>
+    <col min="78" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:84" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="63"/>
+      <c r="BX1" s="63"/>
+      <c r="BY1" s="63"/>
+    </row>
+    <row r="2" spans="2:84" x14ac:dyDescent="0.15">
+      <c r="B2" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64"/>
+      <c r="BV2" s="64"/>
+      <c r="BW2" s="64"/>
+      <c r="BX2" s="64"/>
+      <c r="BY2" s="64"/>
+    </row>
+    <row r="3" spans="2:84" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BH3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
+      <c r="BR3" s="67"/>
+      <c r="BS3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU3" s="67"/>
+      <c r="BV3" s="67"/>
+      <c r="BW3" s="67"/>
+      <c r="BX3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:84" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B4" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="CF4" s="6"/>
+    </row>
+    <row r="5" spans="2:84" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="CF5" s="6"/>
+    </row>
+    <row r="6" spans="2:84" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="34"/>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="34"/>
+      <c r="BU6" s="34"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="34"/>
+      <c r="BY6" s="34"/>
+      <c r="CF6" s="6"/>
+    </row>
+    <row r="7" spans="2:84" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="CF7" s="6"/>
+    </row>
+    <row r="8" spans="2:84" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="65"/>
+      <c r="AZ8" s="65"/>
+      <c r="BA8" s="65"/>
+      <c r="BB8" s="65"/>
+      <c r="BC8" s="65"/>
+      <c r="BD8" s="65"/>
+      <c r="BE8" s="65"/>
+      <c r="BF8" s="65"/>
+      <c r="BG8" s="65"/>
+      <c r="BH8" s="65"/>
+      <c r="BI8" s="65"/>
+      <c r="BJ8" s="65"/>
+      <c r="BK8" s="65"/>
+      <c r="BL8" s="65"/>
+      <c r="BM8" s="65"/>
+      <c r="BN8" s="65"/>
+      <c r="BO8" s="65"/>
+      <c r="BP8" s="65"/>
+      <c r="BQ8" s="65"/>
+      <c r="BR8" s="65"/>
+      <c r="BS8" s="65"/>
+      <c r="BT8" s="65"/>
+      <c r="BU8" s="65"/>
+      <c r="BV8" s="65"/>
+      <c r="BW8" s="65"/>
+      <c r="BX8" s="65"/>
+      <c r="BY8" s="65"/>
+      <c r="CA8" s="29"/>
+    </row>
+    <row r="9" spans="2:84" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="69"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="69"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="73"/>
+      <c r="BJ9" s="36"/>
+      <c r="BK9" s="39"/>
+      <c r="BL9" s="39"/>
+      <c r="BM9" s="39"/>
+      <c r="BN9" s="39"/>
+      <c r="BO9" s="39"/>
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="39"/>
+      <c r="BS9" s="39"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="39"/>
+      <c r="BV9" s="39"/>
+      <c r="BW9" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX9" s="69"/>
+      <c r="BY9" s="70"/>
+      <c r="BZ9" s="7"/>
+    </row>
+    <row r="10" spans="2:84" s="4" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="P10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="45"/>
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU10" s="45"/>
+      <c r="AV10" s="45"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="53"/>
+      <c r="BG10" s="53"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="53"/>
+      <c r="BJ10" s="53"/>
+      <c r="BK10" s="53"/>
+      <c r="BL10" s="53"/>
+      <c r="BM10" s="53"/>
+      <c r="BN10" s="53"/>
+      <c r="BO10" s="53"/>
+      <c r="BP10" s="53"/>
+      <c r="BQ10" s="53"/>
+      <c r="BR10" s="53"/>
+      <c r="BS10" s="53"/>
+      <c r="BT10" s="53"/>
+      <c r="BU10" s="53"/>
+      <c r="BV10" s="53"/>
+      <c r="BW10" s="53"/>
+      <c r="BX10" s="53"/>
+      <c r="BY10" s="54"/>
+    </row>
+    <row r="11" spans="2:84" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="80"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="51"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="48"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="47"/>
+      <c r="BO11" s="48"/>
+      <c r="BP11" s="48"/>
+      <c r="BQ11" s="48"/>
+      <c r="BR11" s="47"/>
+      <c r="BS11" s="48"/>
+      <c r="BT11" s="48"/>
+      <c r="BU11" s="48"/>
+      <c r="BV11" s="47"/>
+      <c r="BW11" s="48"/>
+      <c r="BX11" s="48"/>
+      <c r="BY11" s="51"/>
+    </row>
+    <row r="12" spans="2:84" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="50"/>
+      <c r="BL12" s="50"/>
+      <c r="BM12" s="50"/>
+      <c r="BN12" s="49"/>
+      <c r="BO12" s="50"/>
+      <c r="BP12" s="50"/>
+      <c r="BQ12" s="50"/>
+      <c r="BR12" s="49"/>
+      <c r="BS12" s="50"/>
+      <c r="BT12" s="50"/>
+      <c r="BU12" s="50"/>
+      <c r="BV12" s="49"/>
+      <c r="BW12" s="50"/>
+      <c r="BX12" s="50"/>
+      <c r="BY12" s="52"/>
+    </row>
+    <row r="13" spans="2:84" s="4" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="86"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="86"/>
+      <c r="AW13" s="86"/>
+      <c r="AX13" s="86"/>
+      <c r="AY13" s="86"/>
+      <c r="AZ13" s="86"/>
+      <c r="BA13" s="86"/>
+      <c r="BB13" s="86"/>
+      <c r="BC13" s="86"/>
+      <c r="BD13" s="86"/>
+      <c r="BE13" s="86"/>
+      <c r="BF13" s="86"/>
+      <c r="BG13" s="86"/>
+      <c r="BH13" s="86"/>
+      <c r="BI13" s="86"/>
+      <c r="BJ13" s="86"/>
+      <c r="BK13" s="86"/>
+      <c r="BL13" s="86"/>
+      <c r="BM13" s="86"/>
+      <c r="BN13" s="86"/>
+      <c r="BO13" s="86"/>
+      <c r="BP13" s="86"/>
+      <c r="BQ13" s="86"/>
+      <c r="BR13" s="86"/>
+      <c r="BS13" s="86"/>
+      <c r="BT13" s="86"/>
+      <c r="BU13" s="86"/>
+      <c r="BV13" s="86"/>
+      <c r="BW13" s="86"/>
+      <c r="BX13" s="86"/>
+      <c r="BY13" s="15"/>
+    </row>
+    <row r="14" spans="2:84" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="87"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="87"/>
+      <c r="AZ14" s="87"/>
+      <c r="BA14" s="87"/>
+      <c r="BB14" s="87"/>
+      <c r="BC14" s="87"/>
+      <c r="BD14" s="87"/>
+      <c r="BE14" s="87"/>
+      <c r="BF14" s="87"/>
+      <c r="BG14" s="87"/>
+      <c r="BH14" s="87"/>
+      <c r="BI14" s="87"/>
+      <c r="BJ14" s="87"/>
+      <c r="BK14" s="87"/>
+      <c r="BL14" s="87"/>
+      <c r="BM14" s="87"/>
+      <c r="BN14" s="87"/>
+      <c r="BO14" s="87"/>
+      <c r="BP14" s="87"/>
+      <c r="BQ14" s="87"/>
+      <c r="BR14" s="87"/>
+      <c r="BS14" s="87"/>
+      <c r="BT14" s="87"/>
+      <c r="BU14" s="87"/>
+      <c r="BV14" s="87"/>
+      <c r="BW14" s="87"/>
+      <c r="BX14" s="87"/>
+      <c r="BY14" s="16"/>
+    </row>
+    <row r="15" spans="2:84" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="17"/>
+      <c r="BD15" s="17"/>
+      <c r="BE15" s="17"/>
+      <c r="BF15" s="17"/>
+      <c r="BG15" s="17"/>
+      <c r="BH15" s="17"/>
+      <c r="BI15" s="17"/>
+      <c r="BJ15" s="17"/>
+      <c r="BK15" s="17"/>
+      <c r="BL15" s="17"/>
+      <c r="BM15" s="17"/>
+      <c r="BN15" s="17"/>
+      <c r="BO15" s="17"/>
+      <c r="BP15" s="17"/>
+      <c r="BQ15" s="17"/>
+      <c r="BR15" s="17"/>
+      <c r="BS15" s="17"/>
+      <c r="BT15" s="17"/>
+      <c r="BU15" s="17"/>
+      <c r="BV15" s="17"/>
+      <c r="BW15" s="17"/>
+      <c r="BX15" s="17"/>
+      <c r="BY15" s="18"/>
+    </row>
+    <row r="16" spans="2:84" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="62"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="85"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="37"/>
+      <c r="BY16" s="16"/>
+    </row>
+    <row r="17" spans="2:77" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="38"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="38"/>
+      <c r="BM17" s="38"/>
+      <c r="BN17" s="38"/>
+      <c r="BO17" s="38"/>
+      <c r="BP17" s="38"/>
+      <c r="BQ17" s="38"/>
+      <c r="BR17" s="38"/>
+      <c r="BS17" s="38"/>
+      <c r="BT17" s="38"/>
+      <c r="BU17" s="38"/>
+      <c r="BV17" s="38"/>
+      <c r="BW17" s="38"/>
+      <c r="BX17" s="38"/>
+      <c r="BY17" s="19"/>
+    </row>
+    <row r="18" spans="2:77" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="43"/>
+      <c r="AW18" s="43"/>
+      <c r="AX18" s="43"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="39"/>
+      <c r="BL18" s="39"/>
+      <c r="BM18" s="39"/>
+      <c r="BN18" s="39"/>
+      <c r="BO18" s="39"/>
+      <c r="BP18" s="39"/>
+      <c r="BQ18" s="39"/>
+      <c r="BR18" s="39"/>
+      <c r="BS18" s="39"/>
+      <c r="BT18" s="39"/>
+      <c r="BU18" s="39"/>
+      <c r="BV18" s="39"/>
+      <c r="BW18" s="39"/>
+      <c r="BX18" s="39"/>
+      <c r="BY18" s="37"/>
+    </row>
+    <row r="19" spans="2:77" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="21"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="21"/>
+      <c r="BF19" s="21"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="21"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="21"/>
+      <c r="BM19" s="21"/>
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="21"/>
+      <c r="BP19" s="21"/>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="21"/>
+      <c r="BS19" s="21"/>
+      <c r="BT19" s="21"/>
+      <c r="BU19" s="21"/>
+      <c r="BV19" s="21"/>
+      <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="22"/>
+    </row>
+    <row r="20" spans="2:77" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="17"/>
+      <c r="BI20" s="17"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="17"/>
+      <c r="BL20" s="17"/>
+      <c r="BM20" s="17"/>
+      <c r="BN20" s="17"/>
+      <c r="BO20" s="17"/>
+      <c r="BP20" s="17"/>
+      <c r="BQ20" s="17"/>
+      <c r="BR20" s="17"/>
+      <c r="BS20" s="17"/>
+      <c r="BT20" s="17"/>
+      <c r="BU20" s="17"/>
+      <c r="BV20" s="17"/>
+      <c r="BW20" s="17"/>
+      <c r="BX20" s="17"/>
+      <c r="BY20" s="18"/>
+    </row>
+    <row r="21" spans="2:77" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="BY21" s="16"/>
+    </row>
+    <row r="22" spans="2:77" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="BY22" s="16"/>
+    </row>
+    <row r="23" spans="2:77" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17"/>
+      <c r="BO23" s="17"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
+      <c r="BS23" s="17"/>
+      <c r="BT23" s="17"/>
+      <c r="BU23" s="17"/>
+      <c r="BV23" s="17"/>
+      <c r="BW23" s="17"/>
+      <c r="BX23" s="17"/>
+      <c r="BY23" s="18"/>
+    </row>
+    <row r="24" spans="2:77" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY24" s="16"/>
+    </row>
+    <row r="25" spans="2:77" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="26"/>
+      <c r="BD25" s="26"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="26"/>
+      <c r="BH25" s="26"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="26"/>
+      <c r="BM25" s="26"/>
+      <c r="BN25" s="26"/>
+      <c r="BO25" s="26"/>
+      <c r="BP25" s="26"/>
+      <c r="BQ25" s="26"/>
+      <c r="BR25" s="26"/>
+      <c r="BS25" s="26"/>
+      <c r="BT25" s="26"/>
+      <c r="BU25" s="26"/>
+      <c r="BV25" s="26"/>
+      <c r="BW25" s="26"/>
+      <c r="BX25" s="26"/>
+      <c r="BY25" s="19"/>
+    </row>
+    <row r="26" spans="2:77" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA26" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB26" s="40"/>
+      <c r="BC26" s="40"/>
+      <c r="BD26" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE26" s="41"/>
+      <c r="BF26" s="41"/>
+      <c r="BG26" s="41"/>
+      <c r="BH26" s="41"/>
+      <c r="BI26" s="42"/>
+      <c r="BJ26" s="42"/>
+      <c r="BK26" s="42"/>
+      <c r="BL26" s="42"/>
+      <c r="BM26" s="42"/>
+      <c r="BN26" s="42"/>
+      <c r="BO26" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP26" s="41"/>
+      <c r="BQ26" s="41"/>
+      <c r="BR26" s="41"/>
+      <c r="BS26" s="41"/>
+      <c r="BT26" s="42"/>
+      <c r="BU26" s="42"/>
+      <c r="BV26" s="42"/>
+      <c r="BW26" s="42"/>
+      <c r="BX26" s="42"/>
+      <c r="BY26" s="42"/>
+    </row>
+    <row r="27" spans="2:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BA27" s="40"/>
+      <c r="BB27" s="40"/>
+      <c r="BC27" s="40"/>
+      <c r="BD27" s="41"/>
+      <c r="BE27" s="41"/>
+      <c r="BF27" s="41"/>
+      <c r="BG27" s="41"/>
+      <c r="BH27" s="41"/>
+      <c r="BI27" s="42"/>
+      <c r="BJ27" s="42"/>
+      <c r="BK27" s="42"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="41"/>
+      <c r="BP27" s="41"/>
+      <c r="BQ27" s="41"/>
+      <c r="BR27" s="41"/>
+      <c r="BS27" s="41"/>
+      <c r="BT27" s="42"/>
+      <c r="BU27" s="42"/>
+      <c r="BV27" s="42"/>
+      <c r="BW27" s="42"/>
+      <c r="BX27" s="42"/>
+      <c r="BY27" s="42"/>
+    </row>
+    <row r="28" spans="2:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BA28" s="40"/>
+      <c r="BB28" s="40"/>
+      <c r="BC28" s="40"/>
+      <c r="BD28" s="41"/>
+      <c r="BE28" s="41"/>
+      <c r="BF28" s="41"/>
+      <c r="BG28" s="41"/>
+      <c r="BH28" s="41"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="42"/>
+      <c r="BL28" s="42"/>
+      <c r="BM28" s="42"/>
+      <c r="BN28" s="42"/>
+      <c r="BO28" s="41"/>
+      <c r="BP28" s="41"/>
+      <c r="BQ28" s="41"/>
+      <c r="BR28" s="41"/>
+      <c r="BS28" s="41"/>
+      <c r="BT28" s="42"/>
+      <c r="BU28" s="42"/>
+      <c r="BV28" s="42"/>
+      <c r="BW28" s="42"/>
+      <c r="BX28" s="42"/>
+      <c r="BY28" s="42"/>
+    </row>
+    <row r="29" spans="2:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BA29" s="40"/>
+      <c r="BB29" s="40"/>
+      <c r="BC29" s="40"/>
+      <c r="BD29" s="41"/>
+      <c r="BE29" s="41"/>
+      <c r="BF29" s="41"/>
+      <c r="BG29" s="41"/>
+      <c r="BH29" s="41"/>
+      <c r="BI29" s="42"/>
+      <c r="BJ29" s="42"/>
+      <c r="BK29" s="42"/>
+      <c r="BL29" s="42"/>
+      <c r="BM29" s="42"/>
+      <c r="BN29" s="42"/>
+      <c r="BO29" s="41"/>
+      <c r="BP29" s="41"/>
+      <c r="BQ29" s="41"/>
+      <c r="BR29" s="41"/>
+      <c r="BS29" s="41"/>
+      <c r="BT29" s="42"/>
+      <c r="BU29" s="42"/>
+      <c r="BV29" s="42"/>
+      <c r="BW29" s="42"/>
+      <c r="BX29" s="42"/>
+      <c r="BY29" s="42"/>
+    </row>
+    <row r="30" spans="2:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BA30" s="40"/>
+      <c r="BB30" s="40"/>
+      <c r="BC30" s="40"/>
+      <c r="BD30" s="41"/>
+      <c r="BE30" s="41"/>
+      <c r="BF30" s="41"/>
+      <c r="BG30" s="41"/>
+      <c r="BH30" s="41"/>
+      <c r="BI30" s="42"/>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="42"/>
+      <c r="BL30" s="42"/>
+      <c r="BM30" s="42"/>
+      <c r="BN30" s="42"/>
+      <c r="BO30" s="41"/>
+      <c r="BP30" s="41"/>
+      <c r="BQ30" s="41"/>
+      <c r="BR30" s="41"/>
+      <c r="BS30" s="41"/>
+      <c r="BT30" s="42"/>
+      <c r="BU30" s="42"/>
+      <c r="BV30" s="42"/>
+      <c r="BW30" s="42"/>
+      <c r="BX30" s="42"/>
+      <c r="BY30" s="42"/>
+    </row>
+    <row r="31" spans="2:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B10:K12"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AH10:AK12"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="S13:BX13"/>
+    <mergeCell ref="S14:BX14"/>
+    <mergeCell ref="AL10:AS10"/>
+    <mergeCell ref="M12:AG12"/>
+    <mergeCell ref="AL11:AO12"/>
+    <mergeCell ref="AP11:AS12"/>
+    <mergeCell ref="AX11:BA12"/>
+    <mergeCell ref="B1:BY1"/>
+    <mergeCell ref="B2:BY2"/>
+    <mergeCell ref="B8:BY8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="L9:AZ9"/>
+    <mergeCell ref="BA9:BI9"/>
+    <mergeCell ref="BJ9:BV9"/>
+    <mergeCell ref="BW9:BY9"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="B20:K22"/>
+    <mergeCell ref="B23:K25"/>
+    <mergeCell ref="B13:K14"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B15:K17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="BR11:BU12"/>
+    <mergeCell ref="BV11:BY12"/>
+    <mergeCell ref="AX10:BY10"/>
+    <mergeCell ref="AT11:AW12"/>
+    <mergeCell ref="BB11:BE12"/>
+    <mergeCell ref="BF11:BI12"/>
+    <mergeCell ref="BJ11:BM12"/>
+    <mergeCell ref="BN11:BQ12"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="O17:BX17"/>
+    <mergeCell ref="AY18:BY18"/>
+    <mergeCell ref="M18:AK18"/>
+    <mergeCell ref="BA26:BC30"/>
+    <mergeCell ref="BD26:BH30"/>
+    <mergeCell ref="BI26:BN30"/>
+    <mergeCell ref="BO26:BS30"/>
+    <mergeCell ref="BT26:BY30"/>
+    <mergeCell ref="AM18:AX18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78740157480314965" right="0.70866141732283472" top="0.51181102362204722" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B1:Z49"/>
@@ -6515,990 +9132,990 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2" t="s">
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="37"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="104"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="97"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="31" t="s">
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="33"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="109"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="97"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="28" t="s">
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="30"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="118"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="33"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="109"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="2" t="s">
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2" t="s">
+      <c r="T21" s="99"/>
+      <c r="U21" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="2" t="s">
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="T23" s="99"/>
+      <c r="U23" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="10" t="s">
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="12"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="136"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="18"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="138"/>
+      <c r="Y26" s="138"/>
+      <c r="Z26" s="139"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="39" t="s">
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="2">
+      <c r="O27" s="142"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="99">
         <v>4</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="142"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="144"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="144"/>
+      <c r="T30" s="144"/>
+      <c r="U30" s="144"/>
+      <c r="V30" s="144"/>
+      <c r="W30" s="144"/>
+      <c r="X30" s="144"/>
+      <c r="Y30" s="144"/>
+      <c r="Z30" s="144"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="12"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="136"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="18"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="138"/>
+      <c r="W32" s="138"/>
+      <c r="X32" s="138"/>
+      <c r="Y32" s="138"/>
+      <c r="Z32" s="139"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="12"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="136"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="15"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
+      <c r="Q34" s="147"/>
+      <c r="R34" s="147"/>
+      <c r="S34" s="147"/>
+      <c r="T34" s="147"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="147"/>
+      <c r="W34" s="147"/>
+      <c r="X34" s="147"/>
+      <c r="Y34" s="147"/>
+      <c r="Z34" s="148"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="18"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="138"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="138"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="138"/>
+      <c r="V35" s="138"/>
+      <c r="W35" s="138"/>
+      <c r="X35" s="138"/>
+      <c r="Y35" s="138"/>
+      <c r="Z35" s="139"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="99"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="99"/>
+      <c r="X37" s="99"/>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="99"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="27"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
+      <c r="V38" s="96"/>
+      <c r="W38" s="96"/>
+      <c r="X38" s="96"/>
+      <c r="Y38" s="96"/>
+      <c r="Z38" s="97"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="67" t="s">
+      <c r="C39" s="111"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="15"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="147"/>
+      <c r="Q39" s="147"/>
+      <c r="R39" s="147"/>
+      <c r="S39" s="147"/>
+      <c r="T39" s="147"/>
+      <c r="U39" s="147"/>
+      <c r="V39" s="147"/>
+      <c r="W39" s="147"/>
+      <c r="X39" s="147"/>
+      <c r="Y39" s="147"/>
+      <c r="Z39" s="148"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="18"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="138"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="138"/>
+      <c r="V40" s="138"/>
+      <c r="W40" s="138"/>
+      <c r="X40" s="138"/>
+      <c r="Y40" s="138"/>
+      <c r="Z40" s="139"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="64"/>
-      <c r="Z41" s="64"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="151"/>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151"/>
+      <c r="S41" s="151"/>
+      <c r="T41" s="151"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="151"/>
+      <c r="W41" s="151"/>
+      <c r="X41" s="151"/>
+      <c r="Y41" s="151"/>
+      <c r="Z41" s="151"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="69"/>
-      <c r="Z42" s="69"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="153"/>
+      <c r="P42" s="153"/>
+      <c r="Q42" s="153"/>
+      <c r="R42" s="153"/>
+      <c r="S42" s="153"/>
+      <c r="T42" s="153"/>
+      <c r="U42" s="153"/>
+      <c r="V42" s="153"/>
+      <c r="W42" s="153"/>
+      <c r="X42" s="153"/>
+      <c r="Y42" s="153"/>
+      <c r="Z42" s="153"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="69"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
+      <c r="N43" s="153"/>
+      <c r="O43" s="153"/>
+      <c r="P43" s="153"/>
+      <c r="Q43" s="153"/>
+      <c r="R43" s="153"/>
+      <c r="S43" s="153"/>
+      <c r="T43" s="153"/>
+      <c r="U43" s="153"/>
+      <c r="V43" s="153"/>
+      <c r="W43" s="153"/>
+      <c r="X43" s="153"/>
+      <c r="Y43" s="153"/>
+      <c r="Z43" s="153"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
+      <c r="N46" s="150"/>
+      <c r="O46" s="150"/>
+      <c r="P46" s="150"/>
+      <c r="Q46" s="150"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="99"/>
+      <c r="W46" s="99"/>
+      <c r="X46" s="99"/>
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="99"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="99"/>
+      <c r="V47" s="99"/>
+      <c r="W47" s="99"/>
+      <c r="X47" s="99"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="99"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="99"/>
+      <c r="X48" s="99"/>
+      <c r="Y48" s="99"/>
+      <c r="Z48" s="99"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="99"/>
+      <c r="U49" s="99"/>
+      <c r="V49" s="99"/>
+      <c r="W49" s="99"/>
+      <c r="X49" s="99"/>
+      <c r="Y49" s="99"/>
+      <c r="Z49" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -7559,7 +10176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B1:Z53"/>
@@ -7574,74 +10191,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="79" t="s">
+      <c r="Q1" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -7698,624 +10315,624 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="170"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="170"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="170"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2" t="s">
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="37"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="104"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="9"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="178"/>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
+      <c r="T21" s="178"/>
+      <c r="U21" s="178"/>
+      <c r="V21" s="178"/>
+      <c r="W21" s="178"/>
+      <c r="X21" s="178"/>
+      <c r="Y21" s="178"/>
+      <c r="Z21" s="179"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="33"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="109"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="9"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="178"/>
+      <c r="T23" s="178"/>
+      <c r="U23" s="178"/>
+      <c r="V23" s="178"/>
+      <c r="W23" s="178"/>
+      <c r="X23" s="178"/>
+      <c r="Y23" s="178"/>
+      <c r="Z23" s="179"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="30"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="118"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
+      <c r="B25" s="174"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="109"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="9"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="178"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="179"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="30"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="118"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="33"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="109"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="166"/>
+      <c r="U29" s="166"/>
+      <c r="V29" s="166"/>
+      <c r="W29" s="166"/>
+      <c r="X29" s="166"/>
+      <c r="Y29" s="166"/>
+      <c r="Z29" s="166"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="12"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="136"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="15"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="148"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="15"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="148"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="75"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="18"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
+      <c r="W33" s="138"/>
+      <c r="X33" s="138"/>
+      <c r="Y33" s="138"/>
+      <c r="Z33" s="139"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="78" t="s">
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="99"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="99"/>
+      <c r="X37" s="99"/>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="99"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="N50" s="150"/>
+      <c r="O50" s="150"/>
+      <c r="P50" s="150"/>
+      <c r="Q50" s="150"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="99"/>
+      <c r="T50" s="99"/>
+      <c r="U50" s="99"/>
+      <c r="V50" s="99"/>
+      <c r="W50" s="99"/>
+      <c r="X50" s="99"/>
+      <c r="Y50" s="99"/>
+      <c r="Z50" s="99"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="99"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="99"/>
+      <c r="T51" s="99"/>
+      <c r="U51" s="99"/>
+      <c r="V51" s="99"/>
+      <c r="W51" s="99"/>
+      <c r="X51" s="99"/>
+      <c r="Y51" s="99"/>
+      <c r="Z51" s="99"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="99"/>
+      <c r="P52" s="99"/>
+      <c r="Q52" s="99"/>
+      <c r="R52" s="99"/>
+      <c r="S52" s="99"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="99"/>
+      <c r="W52" s="99"/>
+      <c r="X52" s="99"/>
+      <c r="Y52" s="99"/>
+      <c r="Z52" s="99"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="99"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="99"/>
+      <c r="V53" s="99"/>
+      <c r="W53" s="99"/>
+      <c r="X53" s="99"/>
+      <c r="Y53" s="99"/>
+      <c r="Z53" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="25">
